--- a/Result/check3/2025-03-11.xlsx
+++ b/Result/check3/2025-03-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,11 @@
           <t>flag</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>9927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1634.0</t>
+          <t>392.728</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,102 +703,102 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-1.33</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>134.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-2.37</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,92 +813,92 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-252616.0</t>
+          <t>65877551.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>泰銘</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>11.80%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.32</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>8201</t>
+          <t>12599</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>鉛合金錠85.00%、鉛錠7.05%、黃紅丹成品6.69%、勞務0.63%、其他0.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>泰銘-其他-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>39.27</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -904,6 +909,11 @@
       <c r="AU2" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -945,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -990,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1020,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1080,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1141,6 +1151,11 @@
       <c r="AU3" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-5.98</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1222,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1317,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>33.53</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>37.17</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1362,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1378,6 +1393,11 @@
       <c r="AU4" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 金屬加工用機械、自動販賣機</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>800</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1464,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1524,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1554,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>50.04</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8264</t>
+          <t>8132</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1599,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1615,6 +1635,11 @@
       <c r="AU5" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 營造業、建設業</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>954</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1696,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-5.35</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1731,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1761,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1791,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1801,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1816,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>29.11</t>
+          <t>28.01</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1852,6 +1877,11 @@
       <c r="AU6" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
@@ -1913,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1933,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1968,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1998,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2028,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2038,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>19.17</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2053,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>70.41</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2467</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2089,6 +2119,11 @@
       <c r="AU7" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -2100,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>4931</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>922.854</t>
+          <t>154721.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,202 +2155,202 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39774</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-2.71</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>242608984.0</t>
+          <t>16187853.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>全訊</t>
+          <t>新盛力</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>50.73%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>32.83%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>181.53</t>
+          <t>36.26</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10537</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>微波放大器77.60%、微波次系統21.18%、其他1.22% (2023年)</t>
+          <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>全訊-半導體業-上市</t>
+          <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>30.24</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2326,6 +2361,11 @@
       <c r="AU8" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 電池** 雲端運算 - 電力設備** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池模組</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>154721.0</t>
+          <t>16456.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>40.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2387,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>33430</t>
+          <t>48317</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2447,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>211.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2467,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>16187853.0</t>
+          <t>782024.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2502,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.28</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>26.77%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>65.22</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2563,6 +2603,11 @@
       <c r="AU9" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16456.0</t>
+          <t>656.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27.32</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>40.45</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>-8.3</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>34247</t>
+          <t>853</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-8.62</t>
+          <t>-6.64</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>211.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2704,7 +2749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2714,22 +2759,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>782024.0</t>
+          <t>39332.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2739,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>39.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>38.49</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>64.98</t>
+          <t>53.25</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3281</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2799,7 +2844,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 紡織 - 人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)</t>
         </is>
       </c>
     </row>
@@ -2811,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>656.0</t>
+          <t>39650.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18.27</t>
+          <t>73.47</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2861,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>23.42</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>156</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>32824</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2941,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>39332.0</t>
+          <t>2403998.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2976,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>36.38</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>-26.59%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>54.12</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>7001</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3036,7 +3086,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品、人造纖維</t>
         </is>
       </c>
     </row>
@@ -3048,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39650.0</t>
+          <t>1317.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3068,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>73.47</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3088,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3098,112 +3153,112 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>19058</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2403998.0</t>
+          <t>-17752.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3213,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>42.58%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3274,6 +3329,11 @@
       <c r="AU12" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 製藥 - 中、西藥製劑、藥品代理銷售及通路</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5250.0</t>
+          <t>752.518</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3305,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3325,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3335,107 +3395,107 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>286.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>134435.0</t>
+          <t>-16900875.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -3445,52 +3505,52 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.08</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>43.91%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>42.92</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>15106</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3511,6 +3571,11 @@
       <c r="AU13" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -3522,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1317.0</t>
+          <t>2170.516</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3542,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>206.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3572,172 +3637,172 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>2907</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-17752.0</t>
+          <t>-426579212.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>健喬</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>20.3</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>43.05%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>122.77</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>50461</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
+          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>健喬-生技醫療業-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3747,7 +3812,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1940.0</t>
+          <t>702.635</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3779,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3809,37 +3879,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>10334</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-5.66</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3849,32 +3919,32 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3884,97 +3954,97 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>48754.0</t>
+          <t>-38492525.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>24.20%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>C電子產品99.05%、其他商品及勞務0.68%、室內兒童樂園0.28% (2023年)</t>
+          <t>LED照明50.66%、LED車用產品43.49%、傳感器元件4.78%、其他1.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -3984,7 +4054,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
@@ -3996,222 +4071,222 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>-0.57</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6684.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>35.7</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-3.96</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>752.518</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>264506.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>加百裕</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>54.7</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>-16900875.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>永信</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>14.69</t>
-        </is>
-      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>43.91%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>43.83</t>
+          <t>36.26</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>15106</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
+          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>加百裕-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4222,6 +4297,11 @@
       <c r="AU16" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 電池** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池模組</t>
         </is>
       </c>
     </row>
@@ -4233,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2170.516</t>
+          <t>574.455</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4253,27 +4333,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>206.0</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4283,112 +4363,112 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5208</t>
+          <t>518</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-426579212.0</t>
+          <t>48759114.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>力特</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4398,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>39.20%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>21.61%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>126.52</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>51453</t>
+          <t>5214</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC80.99%、TN/STN19.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>力特-光電業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4458,7 +4538,12 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件</t>
         </is>
       </c>
     </row>
@@ -4470,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>702.635</t>
+          <t>13802.908</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4490,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4520,72 +4605,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>518</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>12765</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4595,12 +4680,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4610,22 +4695,22 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-38492525.0</t>
+          <t>195132399.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4635,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>26.35</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>24.20%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>69864</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4695,7 +4780,12 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12465.549</t>
+          <t>938.351</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4727,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>60.42</t>
+          <t>36.60</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4757,57 +4847,57 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>612</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4817,12 +4907,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>430.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4837,32 +4927,32 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1321830477.0</t>
+          <t>66841336.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4872,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5123</t>
+          <t>12532</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4933,6 +5023,11 @@
       <c r="AU19" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -4944,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6684.0</t>
+          <t>5328.103</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4964,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4994,32 +5089,32 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>246</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14313</t>
+          <t>52077</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5034,12 +5129,12 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -5049,117 +5144,117 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>264506.0</t>
+          <t>392937730.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>加百裕</t>
+          <t>漢翔</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>-1.80%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>49731</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
+          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>加百裕-電腦及週邊設備業-上櫃</t>
+          <t>漢翔-航運業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5170,6 +5265,11 @@
       <c r="AU20" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16080.0</t>
+          <t>28420.607</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5201,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>191.0</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5231,172 +5331,172 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>19005</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-1.86</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>5027</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-1.78</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>3171179.0</t>
+          <t>-1054514738.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>30.48%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>24.77%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>29139</t>
+          <t>262606</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5406,7 +5506,12 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -5418,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13802.908</t>
+          <t>615.693</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5438,104 +5543,104 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>3357</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-1.73</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
       <c r="Z22" t="inlineStr">
         <is>
           <t>False</t>
@@ -5548,32 +5653,32 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>195132399.0</t>
+          <t>11816072.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>宏盛</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5583,57 +5688,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>41.67</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39.26%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31.23%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>70066</t>
+          <t>12448</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>宏盛-建材營造-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5644,6 +5749,11 @@
       <c r="AU22" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -5655,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>938.351</t>
+          <t>10838.952</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5675,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>36.60</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5705,77 +5815,77 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>327.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5785,7 +5895,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5795,22 +5905,22 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>66841336.0</t>
+          <t>2384157647.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5820,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>173.06</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>43845</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5881,6 +5991,11 @@
       <c r="AU23" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>** 半導體 - IC模組** 電腦及週邊設備 - 記憶體、隨身碟、記憶卡讀卡機</t>
         </is>
       </c>
     </row>
@@ -5892,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5328.103</t>
+          <t>10784.529</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5912,202 +6027,202 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>45.9</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6409</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2612593349.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>13.74</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>27370</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>-4.39</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>392937730.0</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>漢翔</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>49354</t>
+          <t>5385</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>漢翔-航運業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>18.5</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6118,6 +6233,11 @@
       <c r="AU24" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
         </is>
       </c>
     </row>
@@ -6129,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>28420.607</t>
+          <t>1742.105</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6149,142 +6269,142 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-2.18</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>73.7</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>20059</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-1054514738.0</t>
+          <t>88053610.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6294,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>30.48%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>267495</t>
+          <t>13342</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6354,7 +6474,12 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲、棒鋼盤元(捲狀條鋼)、冷熱軋不鏽鋼板捲、不鏽鋼棒線、裁剪加工、金屬製品、模具、建築工程** 建材營造 - 結構工程</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27360.782</t>
+          <t>121.813</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6386,142 +6511,142 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16.39</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>226.5</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>15874</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>9080080486.0</t>
+          <t>-1502789.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6531,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>18.47</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>35.32%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>29.75%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>490382</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6592,6 +6717,11 @@
       <c r="AU26" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>** 紡織 - 紡紗、織布、染整、成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10350.761</t>
+          <t>13204.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6623,17 +6753,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6643,7 +6773,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6653,37 +6783,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6693,32 +6823,32 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6733,7 +6863,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6743,22 +6873,22 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>170142323.0</t>
+          <t>181323315.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>日勝生</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6768,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>49.27%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>50.04</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>14750</t>
+          <t>180660</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>日勝生-建材營造-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6829,6 +6959,11 @@
       <c r="AU27" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
         </is>
       </c>
     </row>
@@ -6840,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1197.368</t>
+          <t>322.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6860,117 +6995,117 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>56.3</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>16.84</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1721</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6980,82 +7115,82 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>167136970.0</t>
+          <t>-3851.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>16.16%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>50.04</t>
+          <t>63.32</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>67311</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>房屋99.99%、其他0.01% (2023年)</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7065,7 +7200,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 金屬、塑膠模具** 平面顯示器 - 塑膠框** 通信網路 - 塑膠/金屬機殼</t>
         </is>
       </c>
     </row>
@@ -7077,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10838.952</t>
+          <t>5745.759</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7097,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7127,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>327.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7207,7 +7347,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7217,22 +7357,22 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2384157647.0</t>
+          <t>11366268.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>聯成</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7242,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>13.63</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>19.52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>2.61%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>181.53</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>45135</t>
+          <t>12624</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>商品銷售99.64%、運輸及倉儲物流0.36% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>聯成-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7303,6 +7443,11 @@
       <c r="AU29" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑化劑(可塑劑)</t>
         </is>
       </c>
     </row>
@@ -7314,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10784.529</t>
+          <t>8336.227</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7334,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.15</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7364,32 +7509,32 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7399,37 +7544,37 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>235.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7439,37 +7584,37 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2612593349.0</t>
+          <t>898150380.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7479,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>166688</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7542,1663 +7687,9 @@
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1742.105</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>18.08</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>19.65</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1297</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>88053610.0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>春源</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>9.03%</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>41.47</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>13666</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>春源-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>18.94</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1466</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7620.683</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>82.26</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>15.25</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-3.63</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>328.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>163507176.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>聚隆</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>117.86</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>11.78%</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>62.73</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>1834</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>尼龍加工絲43.55%、尼龍原絲23.43%、Lyocell原絲14.41%、其他9.33%、聚酯加工絲6.69%、醫材2.51%、聚酯原絲0.07% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>聚隆-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>121.813</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20.2</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>769</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-1.37</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>-1502789.0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>年興</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>18.56</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>11.83%</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>3.32%</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>62.73</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>年興-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1402</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>13204.4</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>4683</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>181323315.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>遠東新</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>18.32</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>19.43%</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>6.50%</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>62.73</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>183336</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>遠東新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>43.67</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-1.01</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>322.0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>1413</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-5.23</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>-3851.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>台翰</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>12.29</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>16.16%</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>8.80%</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>65.32</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>台翰-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-2.99</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5745.759</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>26.21</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>11366268.0</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>聯成</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>2.61%</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>-0.89%</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>12857</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>商品銷售99.64%、運輸及倉儲物流0.36% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>聯成-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>22.17</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>8336.227</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>44.15</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>15327</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>898150380.0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>19.84</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>167220</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
